--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/Leetcode/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4098E0A6-8D87-0747-B3A4-B1A849CB8E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9466ACFF-3223-324C-A23C-2F8792401A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16180" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16180" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,13 @@
   </si>
   <si>
     <t>正则s="".join(re.split("\W",s.lower()))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化又要index又要value的时候可以用enumerate</t>
+  </si>
+  <si>
+    <t>计数器更方便</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -74,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,6 +96,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,11 +127,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -436,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -488,23 +505,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -512,8 +530,24 @@
       <c r="A2" s="1">
         <v>125</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2">
+        <v>747</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>485</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9466ACFF-3223-324C-A23C-2F8792401A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7844579-8467-E64E-A7E1-5473DB6B2EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16180" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16180" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,14 @@
   </si>
   <si>
     <t>计数器更方便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以学习正则表达式的应用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>换个思路想问题 这道题不要去考虑怎么找重复的字符串，要考虑substring的重复次数。如果重复了k次，说明len（string）%k==0 并且s[:len(string)//k]*k==s。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -497,6 +505,11 @@
         <v>209</v>
       </c>
     </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1">
+        <v>680</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -505,10 +518,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -550,6 +563,22 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>125</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>459</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7844579-8467-E64E-A7E1-5473DB6B2EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC68B30-05E7-DE46-B364-C42656FFD44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16180" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16180" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,17 @@
   </si>
   <si>
     <t>换个思路想问题 这道题不要去考虑怎么找重复的字符串，要考虑substring的重复次数。如果重复了k次，说明len（string）%k==0 并且s[:len(string)//k]*k==s。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        # split the paragraphy by regular expression
+        # use package to create dict
+        # sort the dict
+        # find the first not banned word and return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按照张老师的思路就是，我们设两个poniter，一个指向当前元素，一个用来遍历元素，如果这个元素在sub里，就把i和j之间的元素删掉，i再加1，相当于从重复元素的后一位再开始遍历。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -135,7 +146,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -144,6 +155,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,7 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -518,10 +532,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -579,6 +593,19 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:2" ht="102">
+      <c r="A7" s="1">
+        <v>819</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEC68B30-05E7-DE46-B364-C42656FFD44B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FE8FEF-9ED0-4E43-84F7-4DFCCBC8E7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16180" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>按照张老师的思路就是，我们设两个poniter，一个指向当前元素，一个用来遍历元素，如果这个元素在sub里，就把i和j之间的元素删掉，i再加1，相当于从重复元素的后一位再开始遍历。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#反转string，先找到从后向前数，第一个降序的位置，把此位置后面的翻转。再把这个降序数字和后面第一个比它大的位置交换即可。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -532,10 +536,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -606,6 +610,14 @@
         <v>13</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>556</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FE8FEF-9ED0-4E43-84F7-4DFCCBC8E7FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E11E21-148F-D84A-A8DF-D6831F89CEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16180" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,6 +97,10 @@
   </si>
   <si>
     <t>#反转string，先找到从后向前数，第一个降序的位置，把此位置后面的翻转。再把这个降序数字和后面第一个比它大的位置交换即可。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>list.sort lambda</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -477,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -528,6 +532,21 @@
         <v>680</v>
       </c>
     </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -536,10 +555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -618,6 +637,14 @@
         <v>14</v>
       </c>
     </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>23</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47E11E21-148F-D84A-A8DF-D6831F89CEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0CA0CF-CA74-7348-BAAF-8B5FBED8781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="6800" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>list.sort lambda</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反转reverse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -555,10 +559,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -645,6 +649,14 @@
         <v>15</v>
       </c>
     </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>92</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0CA0CF-CA74-7348-BAAF-8B5FBED8781A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FF6822-E645-3C45-A3E6-3603284B54DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6800" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,10 @@
   </si>
   <si>
     <t>反转reverse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用min[]而不用自带min函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,10 +563,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -657,6 +661,14 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>155</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4FF6822-E645-3C45-A3E6-3603284B54DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67C3BD6-66AC-3B4A-B531-20670915E20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6800" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,6 +109,18 @@
   </si>
   <si>
     <t>用min[]而不用自带min函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用reverse代替pop能减少时间复杂度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**python/python3 除号大不同 python只能得到整数如果不加float的话，python3可以天然的到小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习使用deque</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -555,6 +567,16 @@
         <v>142</v>
       </c>
     </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1">
+        <v>394</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -563,10 +585,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -669,6 +691,30 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>946</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>150</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>225</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D67C3BD6-66AC-3B4A-B531-20670915E20C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9D5B22-3A0D-8D4B-A133-F8937C767ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6800" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -120,7 +120,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>学习使用deque</t>
+    <t xml:space="preserve">学习使用deque https://www.geeksforgeeks.org/deque-in-python/ </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,7 +588,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C9D5B22-3A0D-8D4B-A133-F8937C767ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF32F42-5DFD-744B-A2F3-26FD4E2551AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6800" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,10 @@
   </si>
   <si>
     <t xml:space="preserve">学习使用deque https://www.geeksforgeeks.org/deque-in-python/ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习循环队列队空队满的判断标准</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -585,10 +589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -715,6 +719,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>622</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF32F42-5DFD-744B-A2F3-26FD4E2551AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87E204F-A24E-B540-8B7C-B39A0E085667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="15020" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>学习循环队列队空队满的判断标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习广度搜索和深度搜索，尤其是深度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -505,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -581,6 +585,11 @@
         <v>394</v>
       </c>
     </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -589,10 +598,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -727,6 +736,14 @@
         <v>21</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>671</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87E204F-A24E-B540-8B7C-B39A0E085667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCFF3CA-73C0-6048-BBA1-AA2F2D13E0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="15020" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -590,6 +590,11 @@
         <v>127</v>
       </c>
     </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>705</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -600,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BCFF3CA-73C0-6048-BBA1-AA2F2D13E0F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069F58C7-2265-7C42-9522-A3EA7FA1075D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="15020" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,10 @@
   </si>
   <si>
     <t>学习广度搜索和深度搜索，尤其是深度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>random.randint(0,len(self.set)-1)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +515,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -603,10 +607,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -749,6 +753,14 @@
         <v>22</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>380</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069F58C7-2265-7C42-9522-A3EA7FA1075D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B78562E-0584-6B4E-95DF-24E5014DAF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15020" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -513,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -599,6 +599,11 @@
         <v>705</v>
       </c>
     </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>981</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -609,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B78562E-0584-6B4E-95DF-24E5014DAF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA21E33-C78E-4B4C-A7C7-549C4342787C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -133,6 +133,10 @@
   </si>
   <si>
     <t>random.randint(0,len(self.set)-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二分搜索的思想</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -515,7 +519,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -612,10 +616,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -766,6 +770,14 @@
         <v>23</v>
       </c>
     </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>69</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA21E33-C78E-4B4C-A7C7-549C4342787C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941CF3FC-4E0D-A345-B31E-39F3F5C97117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>二分搜索的思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>backtracking</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -517,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -608,6 +612,11 @@
         <v>981</v>
       </c>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="1">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -616,10 +625,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -778,6 +787,14 @@
         <v>24</v>
       </c>
     </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941CF3FC-4E0D-A345-B31E-39F3F5C97117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B41E2C2-B468-3F47-9586-B16CEF928F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -521,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -615,6 +615,11 @@
     <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="1">
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B41E2C2-B468-3F47-9586-B16CEF928F54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FF65E5-28FA-544E-9F9F-01AEEC895E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,22 @@
   </si>
   <si>
     <t>backtracking</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>894（medium）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>669（medium）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>544（subscribe）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>247（subscribe）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -148,7 +164,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -170,6 +186,14 @@
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,7 +218,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,6 +230,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -521,15 +548,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -620,6 +648,31 @@
     <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="4" customFormat="1">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0FF65E5-28FA-544E-9F9F-01AEEC895E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4E5A69-0401-2949-BC18-B2731B4241D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,10 @@
   </si>
   <si>
     <t>247（subscribe）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>776（subscribe）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -548,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -673,6 +677,11 @@
     <row r="20" spans="1:1">
       <c r="A20" s="4" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4E5A69-0401-2949-BC18-B2731B4241D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187E462D-BC65-7345-AF2E-789F2E023874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -161,6 +161,10 @@
   </si>
   <si>
     <t>776（subscribe）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>687（medium）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -552,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -682,6 +686,11 @@
     <row r="21" spans="1:1">
       <c r="A21" s="4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{187E462D-BC65-7345-AF2E-789F2E023874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65251974-D0C4-2745-BD05-D7CD95F617FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -165,6 +165,14 @@
   </si>
   <si>
     <t>687（medium）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">用bfs熟悉deque的用法 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recursion的思想</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -558,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
@@ -701,10 +709,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -871,6 +879,30 @@
         <v>25</v>
       </c>
     </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>637</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>965</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>100</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65251974-D0C4-2745-BD05-D7CD95F617FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E91DBFA-4589-144B-8372-E3788F727EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -697,8 +697,13 @@
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="1">
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -711,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E91DBFA-4589-144B-8372-E3788F727EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B052E872-2DAA-374F-A525-952C9B86F7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,6 +173,10 @@
   </si>
   <si>
     <t>recursion的思想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学会用迭代写后序遍历，其实也有前中遍历也要会写</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -566,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -714,10 +718,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -908,6 +912,22 @@
         <v>33</v>
       </c>
     </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>563</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>145</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B052E872-2DAA-374F-A525-952C9B86F7FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05F4A40-B378-B645-84DB-F01830888332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>学会用迭代写后序遍历，其实也有前中遍历也要会写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS,DFS都要会</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +722,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
@@ -928,6 +932,22 @@
         <v>34</v>
       </c>
     </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>102</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>107</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05F4A40-B378-B645-84DB-F01830888332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C19162-1530-8A4F-8786-ECEBC3216434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="1" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,10 @@
   </si>
   <si>
     <t>BFS,DFS都要会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250（subscribe）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -714,6 +718,11 @@
         <v>606</v>
       </c>
     </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -724,7 +733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7C19162-1530-8A4F-8786-ECEBC3216434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8CC1EF-3E40-1243-9BB4-DC839A541EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -721,6 +721,11 @@
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="1">
+        <v>814</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD8CC1EF-3E40-1243-9BB4-DC839A541EBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F19E19-7AE6-E143-A0F1-D879DC2DD7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -576,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -726,6 +726,11 @@
     <row r="25" spans="1:1">
       <c r="A25" s="1">
         <v>814</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1">
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F19E19-7AE6-E143-A0F1-D879DC2DD7BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A239C12D-5C75-8A42-9C38-D0E03FC786B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,10 @@
   </si>
   <si>
     <t>250（subscribe）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>215（堆排序）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -579,7 +583,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -729,8 +733,8 @@
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1">
-        <v>215</v>
+      <c r="A26" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A239C12D-5C75-8A42-9C38-D0E03FC786B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7153195D-8C46-CA47-934F-723824ACF99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -189,6 +189,10 @@
   </si>
   <si>
     <t>215（堆排序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>264（堆排序）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -580,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -735,6 +739,11 @@
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7153195D-8C46-CA47-934F-723824ACF99C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DFC8A9-1636-6946-91D0-6907556BF03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -193,6 +193,10 @@
   </si>
   <si>
     <t>264（堆排序）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>786（medium）但不想写了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -200,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -231,6 +235,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -254,7 +265,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -268,6 +279,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -584,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -744,6 +758,11 @@
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DFC8A9-1636-6946-91D0-6907556BF03B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDBC23F-8F0C-134E-A575-0D0523D47534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -598,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -763,6 +763,11 @@
     <row r="28" spans="1:1">
       <c r="A28" s="5" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1">
+        <v>997</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCDBC23F-8F0C-134E-A575-0D0523D47534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C750E09-F8B1-2A46-9BE4-6A2643A13362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -598,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -768,6 +768,16 @@
     <row r="29" spans="1:1">
       <c r="A29" s="1">
         <v>997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="1">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C750E09-F8B1-2A46-9BE4-6A2643A13362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530F5876-D127-8348-84D5-484F0D8B3054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -598,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -778,6 +778,11 @@
     <row r="31" spans="1:1">
       <c r="A31" s="1">
         <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="1">
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530F5876-D127-8348-84D5-484F0D8B3054}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ECAE83-A0D5-B54C-9CDF-5248A492F256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -197,6 +197,10 @@
   </si>
   <si>
     <t>786（medium）但不想写了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>668（hard）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -598,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -783,6 +787,11 @@
     <row r="32" spans="1:1">
       <c r="A32" s="1">
         <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6ECAE83-A0D5-B54C-9CDF-5248A492F256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644274DA-AB0F-2343-9BFB-350B31209DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,6 +201,10 @@
   </si>
   <si>
     <t>668（hard）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>154（hard）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,7 +212,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,6 +247,13 @@
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
     </font>
@@ -269,7 +280,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -283,6 +294,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -602,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -790,8 +804,18 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="6" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="1">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644274DA-AB0F-2343-9BFB-350B31209DCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5652B3A-A8C7-6A4C-BB15-231B02FB7825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -616,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -816,6 +816,11 @@
     <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="1">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5652B3A-A8C7-6A4C-BB15-231B02FB7825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64E371D-B3B6-C44F-8B84-B102E8C717BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -616,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F36"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -821,6 +821,11 @@
     <row r="36" spans="1:1">
       <c r="A36" s="1">
         <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="1">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64E371D-B3B6-C44F-8B84-B102E8C717BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6BAF4E-3ECA-8041-973D-56953EEF39B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,6 +205,14 @@
   </si>
   <si>
     <t>154（hard）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>126（hard）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140（hard）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -616,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -826,6 +834,16 @@
     <row r="37" spans="1:1">
       <c r="A37" s="1">
         <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6BAF4E-3ECA-8041-973D-56953EEF39B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B416AAFE-CD4F-E54A-B2FB-F6BDD9F92FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -213,6 +213,10 @@
   </si>
   <si>
     <t>140（hard）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200（DFS）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -624,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -844,6 +848,11 @@
     <row r="39" spans="1:1">
       <c r="A39" s="6" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B416AAFE-CD4F-E54A-B2FB-F6BDD9F92FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895EEE1F-3868-5B49-AE7C-F82C5E5B7767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,10 @@
   </si>
   <si>
     <t>200（DFS）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>994（BFS）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,7 +632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
@@ -853,6 +857,16 @@
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1">
+        <v>866</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{895EEE1F-3868-5B49-AE7C-F82C5E5B7767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5AACCD-3F2A-EC46-9639-FEA800C3C97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -221,6 +221,10 @@
   </si>
   <si>
     <t>994（BFS）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>273（主要是理解题意的英语题）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -632,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -867,6 +871,11 @@
     <row r="42" spans="1:1">
       <c r="A42" s="1">
         <v>866</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5AACCD-3F2A-EC46-9639-FEA800C3C97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FD7490-CF54-264A-84C6-D67F9228F52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -636,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -876,6 +876,11 @@
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="1">
+        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FD7490-CF54-264A-84C6-D67F9228F52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367A6A2E-38A2-9D4C-AA49-D34423A6FE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -636,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -881,6 +881,16 @@
     <row r="44" spans="1:1">
       <c r="A44" s="1">
         <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="1">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{367A6A2E-38A2-9D4C-AA49-D34423A6FE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596D3F5A-BB25-994F-B350-9D7F4DD485BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -636,10 +636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -891,6 +891,16 @@
     <row r="46" spans="1:1">
       <c r="A46" s="1">
         <v>128</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="1">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596D3F5A-BB25-994F-B350-9D7F4DD485BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FCC17A-05F6-BB42-B2AF-363974EE049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
     <sheet name="good idea" sheetId="2" r:id="rId2"/>
+    <sheet name="Neetcode" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -638,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -914,7 +915,7 @@
   <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1141,4 +1142,25 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FCC17A-05F6-BB42-B2AF-363974EE049F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057BBA6C-9DB5-F24E-A314-53EBC1F488C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -1146,10 +1146,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1159,6 +1159,16 @@
         <v>105</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057BBA6C-9DB5-F24E-A314-53EBC1F488C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B899888-4FA4-CE4F-8439-1CE84EE6BF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7080" yWindow="500" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="7940" yWindow="9440" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,6 +226,10 @@
   </si>
   <si>
     <t>273（主要是理解题意的英语题）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heap / Priority Queue</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,27 +1150,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>297</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>295</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B899888-4FA4-CE4F-8439-1CE84EE6BF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA56958-AE25-0E41-B074-284A17CB9D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="9440" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="7940" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -230,6 +230,10 @@
   </si>
   <si>
     <t>Heap / Priority Queue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trie</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,9 +349,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -385,7 +389,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -491,7 +495,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -633,7 +637,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1150,7 +1154,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -1184,6 +1188,22 @@
         <v>47</v>
       </c>
     </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>208</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>211</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA56958-AE25-0E41-B074-284A17CB9D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0085E3F-1932-B642-8F4D-7F05F39E19D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,6 +234,22 @@
   </si>
   <si>
     <t>Trie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS/DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS/Visit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1154,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1165,22 +1181,22 @@
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>295</v>
       </c>
@@ -1188,7 +1204,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5">
         <v>208</v>
       </c>
@@ -1196,12 +1212,61 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>211</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>212</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>133</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0085E3F-1932-B642-8F4D-7F05F39E19D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466E3D8E-B24E-5246-A7C1-E7667EA3F349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1170,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1269,6 +1269,14 @@
         <v>49</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>269</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{466E3D8E-B24E-5246-A7C1-E7667EA3F349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90E1A2C-9511-0E49-AF33-94E6274C1359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView minimized="1" xWindow="7940" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>DFS/Visit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1170,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1277,6 +1281,14 @@
         <v>49</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>853</v>
+      </c>
+      <c r="B13" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90E1A2C-9511-0E49-AF33-94E6274C1359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23C59CA-DDEE-AE41-974C-3C080F2B1DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="7940" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="7940" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -254,6 +254,10 @@
   </si>
   <si>
     <t>Stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1174,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1289,6 +1293,14 @@
         <v>53</v>
       </c>
     </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>198</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23C59CA-DDEE-AE41-974C-3C080F2B1DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A8264E-EAF4-A540-8E68-AD874FD80E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1178,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1301,6 +1301,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>5</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A8264E-EAF4-A540-8E68-AD874FD80E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B1FDAE-AEF3-814D-B117-50BD943C4ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1178,10 +1178,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1309,6 +1309,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>152</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B1FDAE-AEF3-814D-B117-50BD943C4ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7A33B8-081E-EA49-8F14-D67A8F71BB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1178,7 +1178,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
@@ -1317,6 +1317,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="17" spans="1:2">
+      <c r="A17">
+        <v>300</v>
+      </c>
+      <c r="B17" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A7A33B8-081E-EA49-8F14-D67A8F71BB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F05FD7F-D989-A04A-B6E3-AB2682FBEC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +258,10 @@
   </si>
   <si>
     <t>dp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1178,10 +1182,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1325,6 +1329,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>2013</v>
+      </c>
+      <c r="B18" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F05FD7F-D989-A04A-B6E3-AB2682FBEC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA27502-BE25-C24B-B3B3-3B6063990917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,14 @@
   </si>
   <si>
     <t>Math</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Greedy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看不太懂还</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1182,10 +1190,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1321,7 +1329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:3">
       <c r="A17">
         <v>300</v>
       </c>
@@ -1329,12 +1337,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>2013</v>
       </c>
       <c r="B18" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>134</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA27502-BE25-C24B-B3B3-3B6063990917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593E63F1-2DAC-3647-AD59-74CC50272FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="-780" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,10 @@
   </si>
   <si>
     <t>看不太懂还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1190,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1356,6 +1360,27 @@
         <v>57</v>
       </c>
     </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>678</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>703</v>
+      </c>
+      <c r="B21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593E63F1-2DAC-3647-AD59-74CC50272FA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45413722-E539-2D44-B2F4-70AFC7E5908F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-780" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="0" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,10 +270,6 @@
   </si>
   <si>
     <t>看不太懂还</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1197,7 +1193,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1377,8 +1373,11 @@
       </c>
     </row>
     <row r="22" spans="1:3">
+      <c r="A22">
+        <v>621</v>
+      </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45413722-E539-2D44-B2F4-70AFC7E5908F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4CAB49-4E4E-FC40-BC3C-D1A341A65F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4680" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -270,6 +270,10 @@
   </si>
   <si>
     <t>看不太懂还</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D DP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1190,10 +1194,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1380,6 +1384,22 @@
         <v>47</v>
       </c>
     </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1143</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>518</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4CAB49-4E4E-FC40-BC3C-D1A341A65F75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D5FC9B-DFAF-C54E-882A-D53EDC1576E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,6 +274,10 @@
   </si>
   <si>
     <t>2D DP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good idea</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1194,10 +1198,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1400,6 +1404,17 @@
         <v>58</v>
       </c>
     </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D5FC9B-DFAF-C54E-882A-D53EDC1576E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6079AB-377D-024E-90B4-A384D09EFDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1198,7 +1198,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
@@ -1415,6 +1415,25 @@
         <v>59</v>
       </c>
     </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6079AB-377D-024E-90B4-A384D09EFDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE12A4E7-8061-7248-A2BC-261BC0BDC7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -278,6 +278,10 @@
   </si>
   <si>
     <t>Good idea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1198,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1434,6 +1438,14 @@
         <v>55</v>
       </c>
     </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>2331</v>
+      </c>
+      <c r="B28" t="s">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE12A4E7-8061-7248-A2BC-261BC0BDC7A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580250D4-DBDC-8C4A-BC03-91FF2064521C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -282,6 +282,10 @@
   </si>
   <si>
     <t>Tree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linked list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1202,10 +1206,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="B31" sqref="B31:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1446,6 +1450,14 @@
         <v>60</v>
       </c>
     </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580250D4-DBDC-8C4A-BC03-91FF2064521C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1074A62E-4CFD-A64A-B1AC-7D0E6353DAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,10 @@
   </si>
   <si>
     <t>Linked list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subset</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1206,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31:B32"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1458,6 +1462,27 @@
         <v>61</v>
       </c>
     </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>1584</v>
+      </c>
+      <c r="B31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1074A62E-4CFD-A64A-B1AC-7D0E6353DAC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0375E4E5-4BEF-7446-941F-7EE14B8C72FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,7 +289,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>subset</t>
+    <t>backtrack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1210,7 +1210,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B34" sqref="B34"/>
@@ -1483,6 +1483,22 @@
         <v>62</v>
       </c>
     </row>
+    <row r="33" spans="1:2">
+      <c r="A33">
+        <v>40</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34">
+        <v>131</v>
+      </c>
+      <c r="B34" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0375E4E5-4BEF-7446-941F-7EE14B8C72FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0D4DB8-EC0C-C345-A8E1-C1B3910ABAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1210,10 +1210,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1499,6 +1499,14 @@
         <v>62</v>
       </c>
     </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
+        <v>473</v>
+      </c>
+      <c r="B35" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED0D4DB8-EC0C-C345-A8E1-C1B3910ABAB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68207586-B8E9-6E43-8E5D-7E66528CEB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,10 @@
   </si>
   <si>
     <t>backtrack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sort</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1210,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
@@ -1507,6 +1511,14 @@
         <v>62</v>
       </c>
     </row>
+    <row r="36" spans="1:2">
+      <c r="A36">
+        <v>912</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68207586-B8E9-6E43-8E5D-7E66528CEB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D948DD-6A82-CF44-8329-9B4C5EBBEF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -294,6 +294,10 @@
   </si>
   <si>
     <t>Sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1214,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1519,6 +1523,14 @@
         <v>63</v>
       </c>
     </row>
+    <row r="37" spans="1:2">
+      <c r="A37">
+        <v>2017</v>
+      </c>
+      <c r="B37" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63D948DD-6A82-CF44-8329-9B4C5EBBEF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C8EE26-6A8B-B640-A037-131039FADCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1218,10 +1218,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1531,6 +1531,14 @@
         <v>64</v>
       </c>
     </row>
+    <row r="38" spans="1:2">
+      <c r="A38">
+        <v>402</v>
+      </c>
+      <c r="B38" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C8EE26-6A8B-B640-A037-131039FADCE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9AA577-6F38-8D45-81F0-646F9EA0FFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,10 @@
   </si>
   <si>
     <t>List</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>binary search</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1218,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1539,6 +1543,22 @@
         <v>53</v>
       </c>
     </row>
+    <row r="39" spans="1:2">
+      <c r="A39">
+        <v>540</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40">
+        <v>1011</v>
+      </c>
+      <c r="B40" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9AA577-6F38-8D45-81F0-646F9EA0FFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EE04A6-43EB-104A-892A-4B73C03A8E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -302,6 +302,14 @@
   </si>
   <si>
     <t>binary search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1222,10 +1230,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1559,6 +1567,22 @@
         <v>65</v>
       </c>
     </row>
+    <row r="41" spans="1:2">
+      <c r="A41">
+        <v>179</v>
+      </c>
+      <c r="B41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42">
+        <v>523</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EE04A6-43EB-104A-892A-4B73C03A8E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BE0031-73ED-B841-9F6F-116E5D82016D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -310,6 +310,10 @@
   </si>
   <si>
     <t>hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1230,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1583,6 +1587,14 @@
         <v>67</v>
       </c>
     </row>
+    <row r="43" spans="1:2">
+      <c r="A43">
+        <v>442</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8BE0031-73ED-B841-9F6F-116E5D82016D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C88F8A5-C74C-F14D-8EF2-E3205D27E9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -1234,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1595,6 +1595,11 @@
         <v>68</v>
       </c>
     </row>
+    <row r="44" spans="1:2">
+      <c r="A44">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C88F8A5-C74C-F14D-8EF2-E3205D27E9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EE8D5B-5FA0-804B-9E2F-F46FD642020E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1234,10 +1234,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1600,6 +1600,14 @@
         <v>18</v>
       </c>
     </row>
+    <row r="45" spans="1:2">
+      <c r="A45">
+        <v>779</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5EE8D5B-5FA0-804B-9E2F-F46FD642020E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AF50A9-D220-3F40-9A0F-06A8B375540A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,6 +314,10 @@
   </si>
   <si>
     <t>array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sliding window</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1234,10 +1238,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1608,6 +1612,14 @@
         <v>65</v>
       </c>
     </row>
+    <row r="46" spans="1:2">
+      <c r="A46">
+        <v>1838</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1AF50A9-D220-3F40-9A0F-06A8B375540A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB087E8-7A9B-B149-AC12-34F05DD05B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,6 +318,10 @@
   </si>
   <si>
     <t>sliding window</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dfs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1238,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1620,6 +1624,14 @@
         <v>69</v>
       </c>
     </row>
+    <row r="47" spans="1:2">
+      <c r="A47">
+        <v>1553</v>
+      </c>
+      <c r="B47" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DB087E8-7A9B-B149-AC12-34F05DD05B8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BE3A38-A946-7045-AA39-34BFEBF21388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="4640" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="11420" yWindow="4600" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1242,10 +1242,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1632,6 +1632,30 @@
         <v>70</v>
       </c>
     </row>
+    <row r="48" spans="1:2">
+      <c r="A48">
+        <v>1658</v>
+      </c>
+      <c r="B48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49">
+        <v>930</v>
+      </c>
+      <c r="B49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50">
+        <v>2962</v>
+      </c>
+      <c r="B50" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BE3A38-A946-7045-AA39-34BFEBF21388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FD9CE0-1748-AC4E-8A8A-060DA56A17AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="4600" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="11420" yWindow="4560" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -322,6 +322,10 @@
   </si>
   <si>
     <t>dfs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1242,10 +1246,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1656,6 +1660,22 @@
         <v>69</v>
       </c>
     </row>
+    <row r="51" spans="1:2">
+      <c r="A51">
+        <v>456</v>
+      </c>
+      <c r="B51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>2616</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FD9CE0-1748-AC4E-8A8A-060DA56A17AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4FC293-736E-F447-A84C-B05DDDDC5F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="4560" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="11420" yWindow="4540" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -326,6 +326,10 @@
   </si>
   <si>
     <t>stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slow, fast pointer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1246,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1644,7 +1648,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:3">
       <c r="A49">
         <v>930</v>
       </c>
@@ -1652,7 +1656,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:3">
       <c r="A50">
         <v>2962</v>
       </c>
@@ -1660,7 +1664,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:3">
       <c r="A51">
         <v>456</v>
       </c>
@@ -1668,12 +1672,23 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:3">
       <c r="A52">
         <v>2616</v>
       </c>
       <c r="B52" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>2130</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4FC293-736E-F447-A84C-B05DDDDC5F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10D3907-6283-754E-975A-B9774C7AAF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4540" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1250,10 +1250,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1691,6 +1691,17 @@
         <v>59</v>
       </c>
     </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>148</v>
+      </c>
+      <c r="B54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F10D3907-6283-754E-975A-B9774C7AAF3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595C523B-0290-8046-8A4A-A1EA360E6F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="4540" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
   <si>
     <t>1st</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,6 +330,10 @@
   </si>
   <si>
     <t>slow, fast pointer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1250,10 +1254,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1702,6 +1706,17 @@
         <v>59</v>
       </c>
     </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>450</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -1,361 +1,390 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595C523B-0290-8046-8A4A-A1EA360E6F80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4E280A-CFA1-C440-972D-358548B60CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="4540" windowWidth="21720" windowHeight="16020" activeTab="2" xr2:uid="{FCE28D67-572F-A744-9BDB-72B0B4163AF6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="27520" windowHeight="14160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="No idea" sheetId="1" r:id="rId1"/>
     <sheet name="good idea" sheetId="2" r:id="rId2"/>
     <sheet name="Neetcode" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
+  <si>
+    <t>No.</t>
+  </si>
   <si>
     <t>1st</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>No.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>2nd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3rd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>4th</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5th</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>669（medium）</t>
+  </si>
+  <si>
+    <t>894（medium）</t>
+  </si>
+  <si>
+    <t>544（subscribe）</t>
+  </si>
+  <si>
+    <t>247（subscribe）</t>
+  </si>
+  <si>
+    <t>776（subscribe）</t>
+  </si>
+  <si>
+    <t>687（medium）</t>
+  </si>
+  <si>
+    <t>250（subscribe）</t>
+  </si>
+  <si>
+    <t>215（堆排序）</t>
+  </si>
+  <si>
+    <t>264（堆排序）</t>
+  </si>
+  <si>
+    <t>786（medium）但不想写了</t>
+  </si>
+  <si>
+    <t>668（hard）</t>
+  </si>
+  <si>
+    <t>154（hard）</t>
+  </si>
+  <si>
+    <t>126（hard）</t>
+  </si>
+  <si>
+    <t>140（hard）</t>
+  </si>
+  <si>
+    <t>200（DFS）</t>
+  </si>
+  <si>
+    <t>994（BFS）</t>
+  </si>
+  <si>
+    <t>273（主要是理解题意的英语题）</t>
   </si>
   <si>
     <t>idea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>正则s="".join(re.split("\W",s.lower()))</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化又要index又要value的时候可以用enumerate</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>强化又要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>index</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>又要</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的时候可以用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="4"/>
+        <charset val="134"/>
+      </rPr>
+      <t>enumerate</t>
+    </r>
   </si>
   <si>
     <t>计数器更方便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>可以学习正则表达式的应用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>换个思路想问题 这道题不要去考虑怎么找重复的字符串，要考虑substring的重复次数。如果重复了k次，说明len（string）%k==0 并且s[:len(string)//k]*k==s。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">        # split the paragraphy by regular expression
         # use package to create dict
         # sort the dict
         # find the first not banned word and return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>按照张老师的思路就是，我们设两个poniter，一个指向当前元素，一个用来遍历元素，如果这个元素在sub里，就把i和j之间的元素删掉，i再加1，相当于从重复元素的后一位再开始遍历。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>#反转string，先找到从后向前数，第一个降序的位置，把此位置后面的翻转。再把这个降序数字和后面第一个比它大的位置交换即可。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>list.sort lambda</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>反转reverse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用min[]而不用自带min函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用reverse代替pop能减少时间复杂度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>**python/python3 除号大不同 python只能得到整数如果不加float的话，python3可以天然的到小数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">学习使用deque https://www.geeksforgeeks.org/deque-in-python/ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学习循环队列队空队满的判断标准</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学习广度搜索和深度搜索，尤其是深度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>random.randint(0,len(self.set)-1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二分搜索的思想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>backtracking</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>894（medium）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>669（medium）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>544（subscribe）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>247（subscribe）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>776（subscribe）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>687（medium）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">用bfs熟悉deque的用法 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>recursion的思想</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>学会用迭代写后序遍历，其实也有前中遍历也要会写</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>BFS,DFS都要会</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>250（subscribe）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>215（堆排序）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>264（堆排序）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>786（medium）但不想写了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>668（hard）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>154（hard）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>126（hard）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>140（hard）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200（DFS）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>994（BFS）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>273（主要是理解题意的英语题）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D DP</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>Array</t>
+  </si>
+  <si>
+    <t>backtrack</t>
+  </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>BFS+Heap</t>
+  </si>
+  <si>
+    <t>binary search</t>
+  </si>
+  <si>
+    <t>BTS</t>
+  </si>
+  <si>
+    <t>dfs</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>dfs，root.left, root.right</t>
+  </si>
+  <si>
+    <t>dp</t>
+  </si>
+  <si>
+    <t>DP</t>
+  </si>
+  <si>
+    <t>DP+Tree</t>
+  </si>
+  <si>
+    <t>Graph</t>
+  </si>
+  <si>
+    <t>BFS/DFS</t>
+  </si>
+  <si>
+    <t>DFS/Visit</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>看不太懂还</t>
+  </si>
+  <si>
+    <t>hash</t>
   </si>
   <si>
     <t>Heap / Priority Queue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good idea</t>
+  </si>
+  <si>
+    <t>Linked list</t>
+  </si>
+  <si>
+    <t>List</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>sliding window</t>
+  </si>
+  <si>
+    <t>slow, fast pointer</t>
+  </si>
+  <si>
+    <t>Sort</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>Stack</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>Tree</t>
+  </si>
+  <si>
+    <t>Tree+DP</t>
   </si>
   <si>
     <t>Trie</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Graph</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BFS/DFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DFS/Visit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Math</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Greedy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>看不太懂还</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2D DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Good idea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Linked list</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>backtrack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>List</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>binary search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sort</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>hash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>array</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sliding window</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dfs</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slow, fast pointer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DFS+Graph</t>
+  </si>
+  <si>
+    <t>DP, longest common string类似的问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP, longest insert string类似的问题</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>DP, Bottom up</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Recursive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -366,24 +395,15 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <family val="4"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -409,27 +429,30 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -453,10 +476,10 @@
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -494,150 +517,52 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -645,33 +570,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -684,13 +600,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -700,15 +610,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -716,7 +624,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -724,45 +631,40 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31186304-1D52-1541-92FF-E5F4C484A721}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F48"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="1" customWidth="1"/>
     <col min="2" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -853,33 +755,33 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="4" customFormat="1">
-      <c r="A18" s="4" t="s">
-        <v>26</v>
+      <c r="A17" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" s="2" customFormat="1">
+      <c r="A18" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>28</v>
+      <c r="A19" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
-        <v>29</v>
+      <c r="A20" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
-        <v>30</v>
+      <c r="A21" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
-        <v>31</v>
+      <c r="A22" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:1">
@@ -888,8 +790,8 @@
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>36</v>
+      <c r="A24" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:1">
@@ -899,17 +801,17 @@
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
-        <v>39</v>
+      <c r="A28" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:1">
@@ -933,8 +835,8 @@
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="6" t="s">
-        <v>40</v>
+      <c r="A33" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:1">
@@ -943,8 +845,8 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="6" t="s">
-        <v>41</v>
+      <c r="A35" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:1">
@@ -958,23 +860,23 @@
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6" t="s">
-        <v>42</v>
+      <c r="A38" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="6" t="s">
-        <v>43</v>
+      <c r="A39" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
     </row>
     <row r="42" spans="1:1">
@@ -984,7 +886,7 @@
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:1">
@@ -1013,32 +915,33 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D8B1B81-97C7-7B4D-B5A4-FCB2018738BD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" customWidth="1"/>
     <col min="3" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -1046,15 +949,15 @@
         <v>125</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2">
+      <c r="A3" s="5">
         <v>747</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1062,7 +965,7 @@
         <v>485</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1070,7 +973,7 @@
         <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1078,20 +981,20 @@
         <v>459</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="102">
       <c r="A7" s="1">
         <v>819</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
+      <c r="B7" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1099,7 +1002,7 @@
         <v>556</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1107,7 +1010,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1115,7 +1018,7 @@
         <v>92</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1123,7 +1026,7 @@
         <v>155</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1131,7 +1034,7 @@
         <v>946</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1139,7 +1042,7 @@
         <v>150</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1147,7 +1050,7 @@
         <v>225</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1155,7 +1058,7 @@
         <v>622</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1163,7 +1066,7 @@
         <v>671</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1171,7 +1074,7 @@
         <v>380</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1179,7 +1082,7 @@
         <v>69</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1187,7 +1090,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1195,7 +1098,7 @@
         <v>637</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1203,7 +1106,7 @@
         <v>965</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1211,7 +1114,7 @@
         <v>100</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1219,7 +1122,7 @@
         <v>563</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1227,7 +1130,7 @@
         <v>145</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1235,7 +1138,7 @@
         <v>102</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1243,210 +1146,223 @@
         <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B4C48B-7B25-4849-AE5A-B4C88CE4B22F}">
-  <dimension ref="A1:C55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>1143</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>518</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>442</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4">
-        <v>295</v>
+        <v>799</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5">
-        <v>208</v>
+        <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
-        <v>200</v>
+        <v>473</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9">
-        <v>133</v>
+        <v>662</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:4">
       <c r="A10">
-        <v>207</v>
+        <v>1631</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
-        <v>261</v>
+        <v>540</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12">
-        <v>269</v>
+        <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
-        <v>853</v>
+        <v>779</v>
       </c>
       <c r="B13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:4">
       <c r="A14">
-        <v>198</v>
+        <v>2616</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15">
-        <v>5</v>
+        <v>450</v>
       </c>
       <c r="B15" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:4">
       <c r="A16">
-        <v>152</v>
+        <v>1553</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>300</v>
+        <v>1443</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>2013</v>
+        <v>802</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>134</v>
+        <v>1325</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>678</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>703</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>621</v>
+        <v>152</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1143</v>
+        <v>300</v>
       </c>
       <c r="B23" t="s">
         <v>58</v>
@@ -1454,271 +1370,446 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>518</v>
-      </c>
-      <c r="B24" t="s">
-        <v>58</v>
+        <v>279</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>43</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s">
-        <v>55</v>
+        <v>61</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>2331</v>
+        <v>133</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>138</v>
+        <v>207</v>
       </c>
       <c r="B29" t="s">
         <v>61</v>
       </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>168</v>
+        <v>261</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1584</v>
+        <v>269</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>90</v>
+        <v>1584</v>
       </c>
       <c r="B32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34">
-        <v>131</v>
+        <v>678</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36">
-        <v>912</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37">
-        <v>2017</v>
+        <v>703</v>
       </c>
       <c r="B37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
-        <v>402</v>
+        <v>621</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
-        <v>540</v>
+        <v>1481</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40">
-        <v>1011</v>
+        <v>1642</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41">
-        <v>179</v>
+        <v>2542</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42">
-        <v>523</v>
+        <v>1094</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43">
-        <v>442</v>
+        <v>1405</v>
       </c>
       <c r="B43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>138</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>2017</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>2013</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>54</v>
+      </c>
+      <c r="B47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>779</v>
-      </c>
-      <c r="B45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>1838</v>
-      </c>
-      <c r="B46" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1553</v>
-      </c>
-      <c r="B47" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:3">
       <c r="A48">
-        <v>1658</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>71</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49">
-        <v>930</v>
+        <v>43</v>
       </c>
       <c r="B49" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50">
-        <v>2962</v>
+        <v>1838</v>
       </c>
       <c r="B50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51">
-        <v>456</v>
+        <v>1658</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52">
-        <v>2616</v>
+        <v>930</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53">
-        <v>2130</v>
+        <v>2962</v>
       </c>
       <c r="B53" t="s">
         <v>72</v>
       </c>
-      <c r="C53" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54">
-        <v>148</v>
+        <v>2130</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55">
-        <v>450</v>
+        <v>148</v>
       </c>
       <c r="B55" t="s">
         <v>73</v>
       </c>
       <c r="C55" t="s">
-        <v>59</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>912</v>
+      </c>
+      <c r="B56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>179</v>
+      </c>
+      <c r="B57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>853</v>
+      </c>
+      <c r="B58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>402</v>
+      </c>
+      <c r="B59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>456</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>2331</v>
+      </c>
+      <c r="B61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>652</v>
+      </c>
+      <c r="B62" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>337</v>
+      </c>
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>208</v>
+      </c>
+      <c r="B64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65">
+        <v>211</v>
+      </c>
+      <c r="B65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66">
+        <v>212</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72">
+        <v>721</v>
+      </c>
+      <c r="B72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73">
+        <v>1035</v>
+      </c>
+      <c r="B73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74">
+        <v>1626</v>
+      </c>
+      <c r="B74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75">
+        <v>983</v>
+      </c>
+      <c r="B75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76">
+        <v>343</v>
+      </c>
+      <c r="B76" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4E280A-CFA1-C440-972D-358548B60CED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4BF7B1-106F-FE47-BDD7-D051BBB3435A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27520" windowHeight="14160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
   <si>
     <t>No.</t>
   </si>
@@ -350,6 +350,10 @@
   </si>
   <si>
     <t>Recursive</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>BFS+Heap</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1158,10 +1162,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D76"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
@@ -1807,6 +1811,14 @@
         <v>85</v>
       </c>
     </row>
+    <row r="77" spans="1:2">
+      <c r="A77">
+        <v>2812</v>
+      </c>
+      <c r="B77" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4BF7B1-106F-FE47-BDD7-D051BBB3435A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E72322-4DEA-2842-AAEF-3C99CA7B5057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27520" windowHeight="14160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
   <si>
     <t>No.</t>
   </si>
@@ -354,6 +354,10 @@
   </si>
   <si>
     <t>BFS+Heap</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>很简单的DFS,BFS但是没过</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1162,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
@@ -1819,6 +1823,19 @@
         <v>86</v>
       </c>
     </row>
+    <row r="78" spans="1:2">
+      <c r="A78">
+        <v>2492</v>
+      </c>
+      <c r="B78" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79">
+        <v>2477</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E72322-4DEA-2842-AAEF-3C99CA7B5057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33D931C-D76B-9C47-8F5B-1C2BDB7C55FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27520" windowHeight="14160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
   <si>
     <t>No.</t>
   </si>
@@ -358,6 +358,10 @@
   </si>
   <si>
     <t>很简单的DFS,BFS但是没过</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>很简单的BFS,感觉想歪了</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1166,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D79"/>
+  <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
@@ -1836,6 +1840,14 @@
         <v>2477</v>
       </c>
     </row>
+    <row r="80" spans="1:2">
+      <c r="A80">
+        <v>787</v>
+      </c>
+      <c r="B80" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/CodingReview.xlsx
+++ b/CodingReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/douwei/Desktop/Leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33D931C-D76B-9C47-8F5B-1C2BDB7C55FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB741745-5FCF-654A-8067-0E1929383DD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="27520" windowHeight="14160" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="90">
   <si>
     <t>No.</t>
   </si>
@@ -362,6 +362,10 @@
   </si>
   <si>
     <t>很简单的BFS,感觉想歪了</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Math, 方向变了</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1170,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16"/>
@@ -1848,6 +1852,14 @@
         <v>88</v>
       </c>
     </row>
+    <row r="81" spans="1:2">
+      <c r="A81">
+        <v>1041</v>
+      </c>
+      <c r="B81" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
